--- a/DRP Cases 11.9.2022.xlsx
+++ b/DRP Cases 11.9.2022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egsnoc2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cysiv-my.sharepoint.com/personal/muhammad_altairy_cysiv_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3EECC93907A8B2E1DC55B99F27E405A2FD543AD8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA32DDCA-8830-42BE-9B46-82CBCFECC4F1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web resources" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
   <si>
     <t>https://www.facebook.com/groups/414301198613617/</t>
   </si>
@@ -188,16 +189,43 @@
   </si>
   <si>
     <t>Recommendation</t>
+  </si>
+  <si>
+    <t>Group created on Facebook related to IT teams and nothing suspicious was found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal account of user on Facebook with no suspicious activity observed </t>
+  </si>
+  <si>
+    <t>After checking it was found a group related to ADIB UAE with videos on offered services and nothing malicious was found</t>
+  </si>
+  <si>
+    <t>After checking it was a group related to job offerings and hiring with job posting on ADIB</t>
+  </si>
+  <si>
+    <t>Personal account of user on Facebook with no suspicious activity observed</t>
+  </si>
+  <si>
+    <t>ff79f017f7c3d7d4746f736477780cf3b7e55eb0ae07cb56440787acd9985709</t>
+  </si>
+  <si>
+    <t>After checking link it was found broken to download ADIB Pay APP</t>
+  </si>
+  <si>
+    <t>After checking website link to download the app was not working and no suspicious activity was detected.</t>
+  </si>
+  <si>
+    <t>Link was found not working with no suspicious actvity found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +254,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF20242C"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,11 +308,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,10 +347,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -584,7 +643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -675,12 +734,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +747,7 @@
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
     <col min="3" max="5" width="22.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="16" customWidth="1"/>
     <col min="7" max="7" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -708,14 +767,14 @@
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
         <v>17</v>
@@ -729,10 +788,14 @@
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -746,10 +809,14 @@
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>21</v>
@@ -763,14 +830,18 @@
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -782,10 +853,14 @@
       <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -801,10 +876,14 @@
       <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -820,14 +899,18 @@
       <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -839,8 +922,12 @@
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
@@ -866,17 +953,21 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{BB486139-A541-4497-BE76-D061AD1088EC}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{B79E9C43-E8E0-49C3-B00F-8F5AB4AB9575}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,7 +1002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -927,144 +1018,177 @@
       <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="E3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="E4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{7909F2A7-5FDB-4294-BBA1-7FC2E73A4DB7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>